--- a/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
@@ -206,7 +206,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:33:01</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:10:56</t>
   </si>
 </sst>
 </file>
@@ -6741,13 +6741,13 @@
         <v>82.5</v>
       </c>
       <c r="Z14" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="AA14" t="n" s="10">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="AB14" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="AC14" t="n" s="10">
         <v>82.3</v>
@@ -6756,43 +6756,43 @@
         <v>82.3</v>
       </c>
       <c r="AE14" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="AF14" t="n" s="10">
         <v>82.4</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="AH14" t="n" s="10">
         <v>82.9</v>
       </c>
       <c r="AI14" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="AJ14" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="AK14" t="n" s="10">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="AL14" t="n" s="10">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="AM14" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="AN14" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="AO14" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="AP14" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="AQ14" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="AR14" t="n" s="10">
         <v>84.8</v>
@@ -6807,7 +6807,7 @@
         <v>84.9</v>
       </c>
       <c r="AV14" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="AW14" t="n" s="10">
         <v>85.1</v>
@@ -6819,13 +6819,13 @@
         <v>85.5</v>
       </c>
       <c r="AZ14" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="BA14" t="n" s="10">
         <v>86.0</v>
       </c>
       <c r="BB14" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="BC14" t="n" s="10">
         <v>86.7</v>
@@ -6834,7 +6834,7 @@
         <v>87.1</v>
       </c>
       <c r="BE14" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="BF14" t="n" s="10">
         <v>87.9</v>
@@ -6858,7 +6858,7 @@
         <v>90.4</v>
       </c>
       <c r="BM14" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="BN14" t="n" s="10">
         <v>91.5</v>
@@ -6894,7 +6894,7 @@
         <v>96.5</v>
       </c>
       <c r="BY14" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="BZ14" t="n" s="10">
         <v>97.4</v>
@@ -6915,28 +6915,28 @@
         <v>99.4</v>
       </c>
       <c r="CF14" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="CG14" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CH14" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="CI14" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CJ14" t="n" s="10">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="CK14" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="CL14" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CM14" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="CN14" t="n" s="10">
         <v>97.8</v>
@@ -6957,7 +6957,7 @@
         <v>89.0</v>
       </c>
       <c r="CT14" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="CU14" t="n" s="10">
         <v>85.7</v>
@@ -6966,13 +6966,13 @@
         <v>84.3</v>
       </c>
       <c r="CW14" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="CX14" t="n" s="10">
         <v>82.5</v>
       </c>
       <c r="CY14" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="CZ14" t="n" s="10">
         <v>82.0</v>
@@ -6981,10 +6981,10 @@
         <v>82.3</v>
       </c>
       <c r="DB14" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="DC14" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="DD14" t="n" s="10">
         <v>84.3</v>
@@ -6996,10 +6996,10 @@
         <v>86.2</v>
       </c>
       <c r="DG14" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="DH14" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="DI14" t="n" s="10">
         <v>88.9</v>
@@ -7014,16 +7014,16 @@
         <v>91.4</v>
       </c>
       <c r="DM14" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="DN14" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="DO14" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="DP14" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DQ14" t="n" s="10">
         <v>95.2</v>
@@ -7032,10 +7032,10 @@
         <v>95.8</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DU14" t="n" s="10">
         <v>97.0</v>
@@ -7053,16 +7053,16 @@
         <v>97.8</v>
       </c>
       <c r="DZ14" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="EA14" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="EB14" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="EC14" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="true">
@@ -8751,58 +8751,58 @@
         <v>82.2</v>
       </c>
       <c r="Z20" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="AA20" t="n" s="10">
-        <v>82.1</v>
+        <v>81.9</v>
       </c>
       <c r="AB20" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="AC20" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="AD20" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="AE20" t="n" s="10">
         <v>81.7</v>
       </c>
       <c r="AF20" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="AG20" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="AH20" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="AI20" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="AJ20" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="AK20" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="AL20" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="AM20" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="AN20" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="AO20" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="AP20" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="AQ20" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="AR20" t="n" s="10">
         <v>84.9</v>
@@ -8817,16 +8817,16 @@
         <v>85.2</v>
       </c>
       <c r="AV20" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="AW20" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="AX20" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="AY20" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="AZ20" t="n" s="10">
         <v>86.2</v>
@@ -8847,7 +8847,7 @@
         <v>88.0</v>
       </c>
       <c r="BF20" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="BG20" t="n" s="10">
         <v>88.9</v>
@@ -8877,7 +8877,7 @@
         <v>92.5</v>
       </c>
       <c r="BP20" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="BQ20" t="n" s="10">
         <v>93.6</v>
@@ -8898,7 +8898,7 @@
         <v>96.1</v>
       </c>
       <c r="BW20" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="BX20" t="n" s="10">
         <v>97.0</v>
@@ -8907,7 +8907,7 @@
         <v>97.5</v>
       </c>
       <c r="BZ20" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="CA20" t="n" s="10">
         <v>98.4</v>
@@ -8922,34 +8922,34 @@
         <v>99.7</v>
       </c>
       <c r="CE20" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CF20" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="CG20" t="n" s="10">
         <v>100.9</v>
       </c>
       <c r="CH20" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="CI20" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CJ20" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CK20" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="CL20" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CM20" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="CN20" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="CO20" t="n" s="10">
         <v>97.0</v>
@@ -8964,16 +8964,16 @@
         <v>91.3</v>
       </c>
       <c r="CS20" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="CT20" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="CU20" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="CV20" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="CW20" t="n" s="10">
         <v>83.0</v>
@@ -8997,7 +8997,7 @@
         <v>83.5</v>
       </c>
       <c r="DD20" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="DE20" t="n" s="10">
         <v>85.5</v>
@@ -9006,13 +9006,13 @@
         <v>86.5</v>
       </c>
       <c r="DG20" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DH20" t="n" s="10">
         <v>88.4</v>
       </c>
       <c r="DI20" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="DJ20" t="n" s="10">
         <v>90.1</v>
@@ -9036,7 +9036,7 @@
         <v>95.0</v>
       </c>
       <c r="DQ20" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="DR20" t="n" s="10">
         <v>96.3</v>
@@ -9045,10 +9045,10 @@
         <v>96.8</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DV20" t="n" s="10">
         <v>97.8</v>
@@ -9072,7 +9072,7 @@
         <v>98.2</v>
       </c>
       <c r="EC20" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="true">
@@ -10761,13 +10761,13 @@
         <v>80.0</v>
       </c>
       <c r="Z26" t="n" s="10">
-        <v>79.9</v>
+        <v>79.7</v>
       </c>
       <c r="AA26" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="AB26" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="AC26" t="n" s="10">
         <v>79.6</v>
@@ -10779,43 +10779,43 @@
         <v>79.4</v>
       </c>
       <c r="AF26" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="AG26" t="n" s="10">
         <v>79.9</v>
       </c>
       <c r="AH26" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="AI26" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="AJ26" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="AK26" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="AL26" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="AM26" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="AN26" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="AO26" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="AP26" t="n" s="10">
         <v>82.4</v>
       </c>
       <c r="AQ26" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="AR26" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="AS26" t="n" s="10">
         <v>82.7</v>
@@ -10824,13 +10824,13 @@
         <v>82.8</v>
       </c>
       <c r="AU26" t="n" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="AV26" t="n" s="10">
         <v>82.9</v>
       </c>
-      <c r="AV26" t="n" s="10">
-        <v>83.0</v>
-      </c>
       <c r="AW26" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="AX26" t="n" s="10">
         <v>83.4</v>
@@ -10839,10 +10839,10 @@
         <v>83.7</v>
       </c>
       <c r="AZ26" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="BA26" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="BB26" t="n" s="10">
         <v>84.6</v>
@@ -10872,7 +10872,7 @@
         <v>87.9</v>
       </c>
       <c r="BK26" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="BL26" t="n" s="10">
         <v>88.9</v>
@@ -10935,28 +10935,28 @@
         <v>99.0</v>
       </c>
       <c r="CF26" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="CG26" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="CH26" t="n" s="10">
+        <v>100.3</v>
+      </c>
+      <c r="CI26" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="CJ26" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="CK26" t="n" s="10">
+        <v>100.4</v>
+      </c>
+      <c r="CL26" t="n" s="10">
         <v>99.8</v>
       </c>
-      <c r="CH26" t="n" s="10">
-        <v>100.2</v>
-      </c>
-      <c r="CI26" t="n" s="10">
-        <v>100.4</v>
-      </c>
-      <c r="CJ26" t="n" s="10">
-        <v>100.5</v>
-      </c>
-      <c r="CK26" t="n" s="10">
-        <v>100.3</v>
-      </c>
-      <c r="CL26" t="n" s="10">
-        <v>99.7</v>
-      </c>
       <c r="CM26" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="CN26" t="n" s="10">
         <v>97.6</v>
@@ -10983,19 +10983,19 @@
         <v>84.2</v>
       </c>
       <c r="CV26" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="CW26" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="CX26" t="n" s="10">
         <v>80.6</v>
       </c>
       <c r="CY26" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="CZ26" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="DA26" t="n" s="10">
         <v>80.3</v>
@@ -11016,10 +11016,10 @@
         <v>84.8</v>
       </c>
       <c r="DG26" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="DH26" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="DI26" t="n" s="10">
         <v>87.8</v>
@@ -11028,7 +11028,7 @@
         <v>88.7</v>
       </c>
       <c r="DK26" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="DL26" t="n" s="10">
         <v>90.5</v>
@@ -11037,28 +11037,28 @@
         <v>91.4</v>
       </c>
       <c r="DN26" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DO26" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DP26" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="DQ26" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="DR26" t="n" s="10">
         <v>95.7</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="DT26" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DV26" t="n" s="10">
         <v>97.7</v>
@@ -11079,10 +11079,10 @@
         <v>98.3</v>
       </c>
       <c r="EB26" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="EC26" t="n" s="10">
         <v>98.2</v>
-      </c>
-      <c r="EC26" t="n" s="10">
-        <v>98.1</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="true">
@@ -12771,13 +12771,13 @@
         <v>80.6</v>
       </c>
       <c r="Z32" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="AA32" t="n" s="10">
-        <v>80.6</v>
+        <v>80.4</v>
       </c>
       <c r="AB32" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="AC32" t="n" s="10">
         <v>80.3</v>
@@ -12786,43 +12786,43 @@
         <v>80.2</v>
       </c>
       <c r="AE32" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="AF32" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="AG32" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="AH32" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="AI32" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="AJ32" t="n" s="10">
-        <v>81.4</v>
+        <v>81.6</v>
       </c>
       <c r="AK32" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="AL32" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="AM32" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="AN32" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="AO32" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="AP32" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="AQ32" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="AR32" t="n" s="10">
         <v>83.4</v>
@@ -12843,16 +12843,16 @@
         <v>83.9</v>
       </c>
       <c r="AX32" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="AY32" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="AZ32" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="BA32" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="BB32" t="n" s="10">
         <v>85.4</v>
@@ -12870,16 +12870,16 @@
         <v>87.0</v>
       </c>
       <c r="BG32" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="BH32" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="BI32" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="BJ32" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="BK32" t="n" s="10">
         <v>89.1</v>
@@ -12900,7 +12900,7 @@
         <v>92.0</v>
       </c>
       <c r="BQ32" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="BR32" t="n" s="10">
         <v>93.3</v>
@@ -12921,7 +12921,7 @@
         <v>96.1</v>
       </c>
       <c r="BX32" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="BY32" t="n" s="10">
         <v>97.0</v>
@@ -12936,40 +12936,40 @@
         <v>98.4</v>
       </c>
       <c r="CC32" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="CD32" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="CE32" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="CF32" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="CG32" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="CH32" t="n" s="10">
+        <v>100.9</v>
+      </c>
+      <c r="CI32" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="CJ32" t="n" s="10">
+        <v>101.2</v>
+      </c>
+      <c r="CK32" t="n" s="10">
+        <v>101.0</v>
+      </c>
+      <c r="CL32" t="n" s="10">
         <v>100.4</v>
-      </c>
-      <c r="CH32" t="n" s="10">
-        <v>100.8</v>
-      </c>
-      <c r="CI32" t="n" s="10">
-        <v>101.0</v>
-      </c>
-      <c r="CJ32" t="n" s="10">
-        <v>101.1</v>
-      </c>
-      <c r="CK32" t="n" s="10">
-        <v>100.9</v>
-      </c>
-      <c r="CL32" t="n" s="10">
-        <v>100.3</v>
       </c>
       <c r="CM32" t="n" s="10">
         <v>99.4</v>
       </c>
       <c r="CN32" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="CO32" t="n" s="10">
         <v>96.6</v>
@@ -12978,10 +12978,10 @@
         <v>94.8</v>
       </c>
       <c r="CQ32" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="CR32" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="CS32" t="n" s="10">
         <v>88.6</v>
@@ -12993,64 +12993,64 @@
         <v>84.8</v>
       </c>
       <c r="CV32" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="CW32" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="CX32" t="n" s="10">
         <v>81.2</v>
       </c>
       <c r="CY32" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="CZ32" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DA32" t="n" s="10">
         <v>80.9</v>
       </c>
       <c r="DB32" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DC32" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="DD32" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DE32" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="DF32" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="DG32" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="DH32" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="DI32" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="DJ32" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="DK32" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="DL32" t="n" s="10">
         <v>90.9</v>
       </c>
       <c r="DM32" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="DN32" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="DO32" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="DP32" t="n" s="10">
         <v>94.5</v>
@@ -13065,10 +13065,10 @@
         <v>96.7</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="DU32" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="DV32" t="n" s="10">
         <v>98.0</v>
@@ -14781,7 +14781,7 @@
         <v>81.3</v>
       </c>
       <c r="Z38" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="AA38" t="n" s="10">
         <v>80.8</v>
@@ -14790,7 +14790,7 @@
         <v>80.9</v>
       </c>
       <c r="AC38" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="AD38" t="n" s="10">
         <v>81.0</v>
@@ -14802,7 +14802,7 @@
         <v>81.3</v>
       </c>
       <c r="AG38" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="AH38" t="n" s="10">
         <v>82.0</v>
@@ -14826,13 +14826,13 @@
         <v>83.8</v>
       </c>
       <c r="AO38" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="AP38" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="AQ38" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="AR38" t="n" s="10">
         <v>84.6</v>
@@ -14850,13 +14850,13 @@
         <v>85.0</v>
       </c>
       <c r="AW38" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="AX38" t="n" s="10">
         <v>85.4</v>
       </c>
       <c r="AY38" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="AZ38" t="n" s="10">
         <v>85.7</v>
@@ -14874,7 +14874,7 @@
         <v>86.9</v>
       </c>
       <c r="BE38" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="BF38" t="n" s="10">
         <v>87.7</v>
@@ -14895,7 +14895,7 @@
         <v>90.4</v>
       </c>
       <c r="BL38" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="BM38" t="n" s="10">
         <v>91.9</v>
@@ -14973,7 +14973,7 @@
         <v>102.8</v>
       </c>
       <c r="CL38" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="CM38" t="n" s="10">
         <v>100.9</v>
@@ -16791,13 +16791,13 @@
         <v>73.9</v>
       </c>
       <c r="Z44" t="n" s="10">
-        <v>74.6</v>
+        <v>74.4</v>
       </c>
       <c r="AA44" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="AB44" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="AC44" t="n" s="10">
         <v>73.8</v>
@@ -16806,40 +16806,40 @@
         <v>73.5</v>
       </c>
       <c r="AE44" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="AF44" t="n" s="10">
         <v>73.3</v>
       </c>
       <c r="AG44" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="AH44" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="AI44" t="n" s="10">
-        <v>74.4</v>
+        <v>74.6</v>
       </c>
       <c r="AJ44" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="AK44" t="n" s="10">
-        <v>75.1</v>
+        <v>75.3</v>
       </c>
       <c r="AL44" t="n" s="10">
-        <v>75.5</v>
+        <v>75.7</v>
       </c>
       <c r="AM44" t="n" s="10">
-        <v>76.0</v>
+        <v>76.2</v>
       </c>
       <c r="AN44" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="AO44" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="AP44" t="n" s="10">
-        <v>76.9</v>
+        <v>77.0</v>
       </c>
       <c r="AQ44" t="n" s="10">
         <v>77.1</v>
@@ -16854,64 +16854,64 @@
         <v>77.4</v>
       </c>
       <c r="AU44" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="AV44" t="n" s="10">
         <v>77.5</v>
       </c>
       <c r="AW44" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="AX44" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="AY44" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="AZ44" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="BA44" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="BB44" t="n" s="10">
-        <v>79.6</v>
+        <v>79.5</v>
       </c>
       <c r="BC44" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="BD44" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="BE44" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="BF44" t="n" s="10">
         <v>81.6</v>
       </c>
       <c r="BG44" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="BH44" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="BI44" t="n" s="10">
         <v>82.8</v>
       </c>
       <c r="BJ44" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="BK44" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="BL44" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="BM44" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="BN44" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="BO44" t="n" s="10">
         <v>85.7</v>
@@ -16920,7 +16920,7 @@
         <v>86.3</v>
       </c>
       <c r="BQ44" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="BR44" t="n" s="10">
         <v>87.6</v>
@@ -16929,19 +16929,19 @@
         <v>88.2</v>
       </c>
       <c r="BT44" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="BU44" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="BV44" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="BW44" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="BX44" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="BY44" t="n" s="10">
         <v>91.9</v>
@@ -16956,46 +16956,46 @@
         <v>93.8</v>
       </c>
       <c r="CC44" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="CD44" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="CE44" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="CF44" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="CG44" t="n" s="10">
+        <v>96.7</v>
+      </c>
+      <c r="CH44" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="CI44" t="n" s="10">
+        <v>97.7</v>
+      </c>
+      <c r="CJ44" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="CK44" t="n" s="10">
+        <v>97.7</v>
+      </c>
+      <c r="CL44" t="n" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="CM44" t="n" s="10">
+        <v>96.3</v>
+      </c>
+      <c r="CN44" t="n" s="10">
         <v>95.0</v>
       </c>
-      <c r="CE44" t="n" s="10">
-        <v>95.6</v>
-      </c>
-      <c r="CF44" t="n" s="10">
-        <v>96.1</v>
-      </c>
-      <c r="CG44" t="n" s="10">
-        <v>96.6</v>
-      </c>
-      <c r="CH44" t="n" s="10">
-        <v>97.2</v>
-      </c>
-      <c r="CI44" t="n" s="10">
-        <v>97.6</v>
-      </c>
-      <c r="CJ44" t="n" s="10">
-        <v>97.8</v>
-      </c>
-      <c r="CK44" t="n" s="10">
-        <v>97.6</v>
-      </c>
-      <c r="CL44" t="n" s="10">
-        <v>97.1</v>
-      </c>
-      <c r="CM44" t="n" s="10">
-        <v>96.2</v>
-      </c>
-      <c r="CN44" t="n" s="10">
-        <v>94.9</v>
-      </c>
       <c r="CO44" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="CP44" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="CQ44" t="n" s="10">
         <v>89.2</v>
@@ -17028,19 +17028,19 @@
         <v>74.2</v>
       </c>
       <c r="DA44" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="DB44" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="DC44" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="DD44" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="DE44" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="DF44" t="n" s="10">
         <v>77.9</v>
@@ -17049,16 +17049,16 @@
         <v>79.0</v>
       </c>
       <c r="DH44" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="DI44" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DJ44" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="DK44" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="DL44" t="n" s="10">
         <v>84.5</v>
@@ -17067,34 +17067,34 @@
         <v>85.7</v>
       </c>
       <c r="DN44" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="DO44" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DP44" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="DQ44" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="DR44" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="DS44" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DT44" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="DU44" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="DV44" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="DW44" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DX44" t="n" s="10">
         <v>95.5</v>
@@ -17106,13 +17106,13 @@
         <v>96.0</v>
       </c>
       <c r="EA44" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="EB44" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="EC44" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="true">
@@ -18807,28 +18807,28 @@
         <v>100.4</v>
       </c>
       <c r="AB50" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC50" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="AD50" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="AE50" t="n" s="10">
         <v>99.8</v>
       </c>
-      <c r="AE50" t="n" s="10">
-        <v>99.7</v>
-      </c>
       <c r="AF50" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="AG50" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AH50" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AI50" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AJ50" t="n" s="10">
         <v>101.6</v>
@@ -18852,19 +18852,19 @@
         <v>101.5</v>
       </c>
       <c r="AQ50" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AR50" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="AS50" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AT50" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="AU50" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="AV50" t="n" s="10">
         <v>99.1</v>
@@ -18906,7 +18906,7 @@
         <v>101.7</v>
       </c>
       <c r="BI50" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="BJ50" t="n" s="10">
         <v>103.0</v>
@@ -18918,7 +18918,7 @@
         <v>104.8</v>
       </c>
       <c r="BM50" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="BN50" t="n" s="10">
         <v>106.9</v>
@@ -18930,73 +18930,73 @@
         <v>108.6</v>
       </c>
       <c r="BQ50" t="n" s="10">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="BR50" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BS50" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BT50" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BU50" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BV50" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BW50" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BX50" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BY50" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BZ50" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="CA50" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="CB50" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="CC50" t="n" s="10">
         <v>109.7</v>
       </c>
-      <c r="BS50" t="n" s="10">
-        <v>110.0</v>
-      </c>
-      <c r="BT50" t="n" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="BU50" t="n" s="10">
-        <v>110.3</v>
-      </c>
-      <c r="BV50" t="n" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="BW50" t="n" s="10">
-        <v>110.1</v>
-      </c>
-      <c r="BX50" t="n" s="10">
-        <v>110.0</v>
-      </c>
-      <c r="BY50" t="n" s="10">
-        <v>109.9</v>
-      </c>
-      <c r="BZ50" t="n" s="10">
-        <v>109.8</v>
-      </c>
-      <c r="CA50" t="n" s="10">
-        <v>109.8</v>
-      </c>
-      <c r="CB50" t="n" s="10">
-        <v>109.7</v>
-      </c>
-      <c r="CC50" t="n" s="10">
-        <v>109.6</v>
-      </c>
       <c r="CD50" t="n" s="10">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="CE50" t="n" s="10">
         <v>109.3</v>
       </c>
       <c r="CF50" t="n" s="10">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="CG50" t="n" s="10">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="CH50" t="n" s="10">
-        <v>109.2</v>
+        <v>109.0</v>
       </c>
       <c r="CI50" t="n" s="10">
-        <v>109.0</v>
+        <v>108.9</v>
       </c>
       <c r="CJ50" t="n" s="10">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="CK50" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="CL50" t="n" s="10">
         <v>106.8</v>
       </c>
       <c r="CM50" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="CN50" t="n" s="10">
         <v>104.1</v>
@@ -19005,7 +19005,7 @@
         <v>102.4</v>
       </c>
       <c r="CP50" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CQ50" t="n" s="10">
         <v>98.7</v>
@@ -19014,22 +19014,22 @@
         <v>96.7</v>
       </c>
       <c r="CS50" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="CT50" t="n" s="10">
         <v>92.9</v>
       </c>
       <c r="CU50" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="CV50" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="CW50" t="n" s="10">
         <v>88.9</v>
       </c>
       <c r="CX50" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="CY50" t="n" s="10">
         <v>87.7</v>
@@ -19044,7 +19044,7 @@
         <v>88.5</v>
       </c>
       <c r="DC50" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="DD50" t="n" s="10">
         <v>90.6</v>
@@ -19071,7 +19071,7 @@
         <v>96.3</v>
       </c>
       <c r="DL50" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="DM50" t="n" s="10">
         <v>97.3</v>
@@ -19110,7 +19110,7 @@
         <v>100.9</v>
       </c>
       <c r="DY50" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="DZ50" t="n" s="10">
         <v>100.7</v>
@@ -19122,7 +19122,7 @@
         <v>100.3</v>
       </c>
       <c r="EC50" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="51" ht="22.5" customHeight="true">
@@ -20847,7 +20847,7 @@
         <v>90.8</v>
       </c>
       <c r="AL56" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="AM56" t="n" s="10">
         <v>90.8</v>
@@ -20871,7 +20871,7 @@
         <v>91.3</v>
       </c>
       <c r="AT56" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="AU56" t="n" s="10">
         <v>91.7</v>
@@ -20901,7 +20901,7 @@
         <v>94.6</v>
       </c>
       <c r="BD56" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="BE56" t="n" s="10">
         <v>95.3</v>
@@ -20922,13 +20922,13 @@
         <v>96.0</v>
       </c>
       <c r="BK56" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="BL56" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="BM56" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BN56" t="n" s="10">
         <v>96.4</v>
@@ -20937,7 +20937,7 @@
         <v>96.7</v>
       </c>
       <c r="BP56" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="BQ56" t="n" s="10">
         <v>97.3</v>
@@ -20955,13 +20955,13 @@
         <v>98.9</v>
       </c>
       <c r="BV56" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="BW56" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BX56" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="BY56" t="n" s="10">
         <v>100.5</v>
@@ -20976,10 +20976,10 @@
         <v>101.1</v>
       </c>
       <c r="CC56" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="CD56" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="CE56" t="n" s="10">
         <v>101.1</v>
@@ -20991,10 +20991,10 @@
         <v>100.8</v>
       </c>
       <c r="CH56" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CI56" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="CJ56" t="n" s="10">
         <v>100.2</v>
@@ -21018,13 +21018,13 @@
         <v>98.4</v>
       </c>
       <c r="CQ56" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="CR56" t="n" s="10">
         <v>97.7</v>
       </c>
       <c r="CS56" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="CT56" t="n" s="10">
         <v>96.9</v>
@@ -22827,13 +22827,13 @@
         <v>92.6</v>
       </c>
       <c r="AB62" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="AC62" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="AD62" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="AE62" t="n" s="10">
         <v>92.3</v>
@@ -22854,7 +22854,7 @@
         <v>92.5</v>
       </c>
       <c r="AK62" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="AL62" t="n" s="10">
         <v>92.6</v>
@@ -22917,13 +22917,13 @@
         <v>96.0</v>
       </c>
       <c r="BF62" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="BG62" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="BH62" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="BI62" t="n" s="10">
         <v>96.9</v>
@@ -22944,7 +22944,7 @@
         <v>98.1</v>
       </c>
       <c r="BO62" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="BP62" t="n" s="10">
         <v>98.8</v>
@@ -22953,10 +22953,10 @@
         <v>99.2</v>
       </c>
       <c r="BR62" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="BS62" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="BT62" t="n" s="10">
         <v>100.4</v>
@@ -22974,7 +22974,7 @@
         <v>101.8</v>
       </c>
       <c r="BY62" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="BZ62" t="n" s="10">
         <v>102.3</v>
@@ -23076,10 +23076,10 @@
         <v>95.8</v>
       </c>
       <c r="DG62" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="DH62" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="DI62" t="n" s="10">
         <v>96.7</v>
@@ -24831,7 +24831,7 @@
         <v>105.2</v>
       </c>
       <c r="Z68" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AA68" t="n" s="10">
         <v>105.2</v>
@@ -24840,19 +24840,19 @@
         <v>105.4</v>
       </c>
       <c r="AC68" t="n" s="10">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="AD68" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="AE68" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="AF68" t="n" s="10">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="AG68" t="n" s="10">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AH68" t="n" s="10">
         <v>106.3</v>
@@ -24891,7 +24891,7 @@
         <v>109.3</v>
       </c>
       <c r="AT68" t="n" s="10">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="AU68" t="n" s="10">
         <v>109.9</v>
@@ -24900,7 +24900,7 @@
         <v>110.0</v>
       </c>
       <c r="AW68" t="n" s="10">
-        <v>110.0</v>
+        <v>110.1</v>
       </c>
       <c r="AX68" t="n" s="10">
         <v>110.0</v>
@@ -24912,7 +24912,7 @@
         <v>109.9</v>
       </c>
       <c r="BA68" t="n" s="10">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="BB68" t="n" s="10">
         <v>109.8</v>
@@ -24933,7 +24933,7 @@
         <v>110.2</v>
       </c>
       <c r="BH68" t="n" s="10">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="BI68" t="n" s="10">
         <v>110.7</v>
@@ -24954,10 +24954,10 @@
         <v>110.5</v>
       </c>
       <c r="BO68" t="n" s="10">
-        <v>109.9</v>
+        <v>110.0</v>
       </c>
       <c r="BP68" t="n" s="10">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="BQ68" t="n" s="10">
         <v>108.6</v>
@@ -24978,7 +24978,7 @@
         <v>106.0</v>
       </c>
       <c r="BW68" t="n" s="10">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="BX68" t="n" s="10">
         <v>106.4</v>
@@ -25008,7 +25008,7 @@
         <v>109.0</v>
       </c>
       <c r="CG68" t="n" s="10">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="CH68" t="n" s="10">
         <v>108.6</v>
@@ -25044,10 +25044,10 @@
         <v>101.9</v>
       </c>
       <c r="CS68" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="CT68" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="CU68" t="n" s="10">
         <v>100.0</v>
@@ -25062,10 +25062,10 @@
         <v>99.4</v>
       </c>
       <c r="CY68" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="CZ68" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DA68" t="n" s="10">
         <v>100.1</v>
@@ -25086,7 +25086,7 @@
         <v>101.9</v>
       </c>
       <c r="DG68" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="DH68" t="n" s="10">
         <v>102.3</v>
@@ -25101,7 +25101,7 @@
         <v>102.7</v>
       </c>
       <c r="DL68" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="DM68" t="n" s="10">
         <v>102.9</v>
@@ -25113,7 +25113,7 @@
         <v>102.6</v>
       </c>
       <c r="DP68" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="DQ68" t="n" s="10">
         <v>101.9</v>
@@ -25125,10 +25125,10 @@
         <v>100.8</v>
       </c>
       <c r="DT68" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="DU68" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="DV68" t="n" s="10">
         <v>98.8</v>
@@ -25152,7 +25152,7 @@
         <v>98.0</v>
       </c>
       <c r="EC68" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="69" ht="22.5" customHeight="true">
@@ -26841,7 +26841,7 @@
         <v>129.9</v>
       </c>
       <c r="Z74" t="n" s="10">
-        <v>129.2</v>
+        <v>129.1</v>
       </c>
       <c r="AA74" t="n" s="10">
         <v>129.1</v>
@@ -26850,7 +26850,7 @@
         <v>129.0</v>
       </c>
       <c r="AC74" t="n" s="10">
-        <v>128.9</v>
+        <v>128.8</v>
       </c>
       <c r="AD74" t="n" s="10">
         <v>128.7</v>
@@ -26877,7 +26877,7 @@
         <v>132.4</v>
       </c>
       <c r="AL74" t="n" s="10">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="AM74" t="n" s="10">
         <v>134.3</v>
@@ -26889,28 +26889,28 @@
         <v>136.0</v>
       </c>
       <c r="AP74" t="n" s="10">
-        <v>136.8</v>
+        <v>136.7</v>
       </c>
       <c r="AQ74" t="n" s="10">
-        <v>137.4</v>
+        <v>137.3</v>
       </c>
       <c r="AR74" t="n" s="10">
         <v>137.6</v>
       </c>
       <c r="AS74" t="n" s="10">
-        <v>137.8</v>
+        <v>137.7</v>
       </c>
       <c r="AT74" t="n" s="10">
         <v>137.9</v>
       </c>
       <c r="AU74" t="n" s="10">
-        <v>138.1</v>
+        <v>138.0</v>
       </c>
       <c r="AV74" t="n" s="10">
         <v>138.3</v>
       </c>
       <c r="AW74" t="n" s="10">
-        <v>138.6</v>
+        <v>138.5</v>
       </c>
       <c r="AX74" t="n" s="10">
         <v>138.7</v>
@@ -26922,7 +26922,7 @@
         <v>139.1</v>
       </c>
       <c r="BA74" t="n" s="10">
-        <v>139.2</v>
+        <v>139.3</v>
       </c>
       <c r="BB74" t="n" s="10">
         <v>139.3</v>
@@ -26931,49 +26931,49 @@
         <v>139.3</v>
       </c>
       <c r="BD74" t="n" s="10">
+        <v>139.3</v>
+      </c>
+      <c r="BE74" t="n" s="10">
+        <v>139.3</v>
+      </c>
+      <c r="BF74" t="n" s="10">
         <v>139.2</v>
       </c>
-      <c r="BE74" t="n" s="10">
-        <v>139.2</v>
-      </c>
-      <c r="BF74" t="n" s="10">
-        <v>139.1</v>
-      </c>
       <c r="BG74" t="n" s="10">
-        <v>138.9</v>
+        <v>139.0</v>
       </c>
       <c r="BH74" t="n" s="10">
-        <v>138.7</v>
+        <v>138.8</v>
       </c>
       <c r="BI74" t="n" s="10">
-        <v>138.5</v>
+        <v>138.6</v>
       </c>
       <c r="BJ74" t="n" s="10">
-        <v>138.3</v>
+        <v>138.4</v>
       </c>
       <c r="BK74" t="n" s="10">
-        <v>138.0</v>
+        <v>138.1</v>
       </c>
       <c r="BL74" t="n" s="10">
+        <v>137.9</v>
+      </c>
+      <c r="BM74" t="n" s="10">
         <v>137.8</v>
       </c>
-      <c r="BM74" t="n" s="10">
-        <v>137.7</v>
-      </c>
       <c r="BN74" t="n" s="10">
-        <v>137.7</v>
+        <v>137.8</v>
       </c>
       <c r="BO74" t="n" s="10">
+        <v>137.6</v>
+      </c>
+      <c r="BP74" t="n" s="10">
         <v>137.5</v>
-      </c>
-      <c r="BP74" t="n" s="10">
-        <v>137.4</v>
       </c>
       <c r="BQ74" t="n" s="10">
         <v>137.4</v>
       </c>
       <c r="BR74" t="n" s="10">
-        <v>137.4</v>
+        <v>137.5</v>
       </c>
       <c r="BS74" t="n" s="10">
         <v>137.7</v>
@@ -26982,7 +26982,7 @@
         <v>138.1</v>
       </c>
       <c r="BU74" t="n" s="10">
-        <v>138.5</v>
+        <v>138.6</v>
       </c>
       <c r="BV74" t="n" s="10">
         <v>139.0</v>
@@ -27006,91 +27006,91 @@
         <v>139.8</v>
       </c>
       <c r="CC74" t="n" s="10">
-        <v>139.6</v>
+        <v>139.4</v>
       </c>
       <c r="CD74" t="n" s="10">
-        <v>139.0</v>
+        <v>138.8</v>
       </c>
       <c r="CE74" t="n" s="10">
-        <v>138.2</v>
+        <v>138.0</v>
       </c>
       <c r="CF74" t="n" s="10">
-        <v>137.2</v>
+        <v>137.1</v>
       </c>
       <c r="CG74" t="n" s="10">
         <v>136.3</v>
       </c>
       <c r="CH74" t="n" s="10">
-        <v>135.3</v>
+        <v>135.5</v>
       </c>
       <c r="CI74" t="n" s="10">
-        <v>134.3</v>
+        <v>134.6</v>
       </c>
       <c r="CJ74" t="n" s="10">
-        <v>133.3</v>
+        <v>133.8</v>
       </c>
       <c r="CK74" t="n" s="10">
-        <v>132.2</v>
+        <v>132.9</v>
       </c>
       <c r="CL74" t="n" s="10">
-        <v>130.9</v>
+        <v>131.8</v>
       </c>
       <c r="CM74" t="n" s="10">
+        <v>130.7</v>
+      </c>
+      <c r="CN74" t="n" s="10">
         <v>129.7</v>
       </c>
-      <c r="CN74" t="n" s="10">
-        <v>128.6</v>
-      </c>
       <c r="CO74" t="n" s="10">
-        <v>127.6</v>
+        <v>128.8</v>
       </c>
       <c r="CP74" t="n" s="10">
-        <v>126.8</v>
+        <v>128.0</v>
       </c>
       <c r="CQ74" t="n" s="10">
-        <v>126.0</v>
+        <v>127.2</v>
       </c>
       <c r="CR74" t="n" s="10">
-        <v>125.4</v>
+        <v>126.4</v>
       </c>
       <c r="CS74" t="n" s="10">
+        <v>125.5</v>
+      </c>
+      <c r="CT74" t="n" s="10">
         <v>124.6</v>
       </c>
-      <c r="CT74" t="n" s="10">
+      <c r="CU74" t="n" s="10">
         <v>123.8</v>
       </c>
-      <c r="CU74" t="n" s="10">
-        <v>123.2</v>
-      </c>
       <c r="CV74" t="n" s="10">
-        <v>122.6</v>
+        <v>123.0</v>
       </c>
       <c r="CW74" t="n" s="10">
-        <v>121.9</v>
+        <v>122.2</v>
       </c>
       <c r="CX74" t="n" s="10">
-        <v>121.2</v>
+        <v>121.3</v>
       </c>
       <c r="CY74" t="n" s="10">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="CZ74" t="n" s="10">
-        <v>119.4</v>
+        <v>119.2</v>
       </c>
       <c r="DA74" t="n" s="10">
-        <v>118.3</v>
+        <v>118.1</v>
       </c>
       <c r="DB74" t="n" s="10">
-        <v>117.4</v>
+        <v>117.2</v>
       </c>
       <c r="DC74" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="DD74" t="n" s="10">
-        <v>116.0</v>
+        <v>115.9</v>
       </c>
       <c r="DE74" t="n" s="10">
-        <v>115.6</v>
+        <v>115.5</v>
       </c>
       <c r="DF74" t="n" s="10">
         <v>115.2</v>
@@ -27105,10 +27105,10 @@
         <v>114.7</v>
       </c>
       <c r="DJ74" t="n" s="10">
-        <v>115.0</v>
+        <v>114.9</v>
       </c>
       <c r="DK74" t="n" s="10">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="DL74" t="n" s="10">
         <v>115.5</v>
@@ -27120,7 +27120,7 @@
         <v>115.8</v>
       </c>
       <c r="DO74" t="n" s="10">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="DP74" t="n" s="10">
         <v>115.8</v>
@@ -27129,7 +27129,7 @@
         <v>115.7</v>
       </c>
       <c r="DR74" t="n" s="10">
-        <v>115.6</v>
+        <v>115.5</v>
       </c>
       <c r="DS74" t="n" s="10">
         <v>115.2</v>
@@ -27144,25 +27144,25 @@
         <v>114.5</v>
       </c>
       <c r="DW74" t="n" s="10">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="DX74" t="n" s="10">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
       <c r="DY74" t="n" s="10">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="DZ74" t="n" s="10">
         <v>115.0</v>
       </c>
       <c r="EA74" t="n" s="10">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="EB74" t="n" s="10">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="EC74" t="n" s="10">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="75" ht="22.5" customHeight="true">
@@ -28851,16 +28851,16 @@
         <v>157.2</v>
       </c>
       <c r="Z80" t="n" s="10">
-        <v>152.5</v>
+        <v>152.3</v>
       </c>
       <c r="AA80" t="n" s="10">
-        <v>153.6</v>
+        <v>153.5</v>
       </c>
       <c r="AB80" t="n" s="10">
-        <v>154.8</v>
+        <v>154.7</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>156.3</v>
+        <v>156.2</v>
       </c>
       <c r="AD80" t="n" s="10">
         <v>157.6</v>
@@ -28869,34 +28869,34 @@
         <v>158.8</v>
       </c>
       <c r="AF80" t="n" s="10">
-        <v>159.5</v>
+        <v>159.6</v>
       </c>
       <c r="AG80" t="n" s="10">
         <v>159.6</v>
       </c>
       <c r="AH80" t="n" s="10">
-        <v>159.5</v>
+        <v>159.6</v>
       </c>
       <c r="AI80" t="n" s="10">
-        <v>159.1</v>
+        <v>159.2</v>
       </c>
       <c r="AJ80" t="n" s="10">
-        <v>158.6</v>
+        <v>158.7</v>
       </c>
       <c r="AK80" t="n" s="10">
         <v>158.0</v>
       </c>
       <c r="AL80" t="n" s="10">
-        <v>157.1</v>
+        <v>157.2</v>
       </c>
       <c r="AM80" t="n" s="10">
-        <v>156.1</v>
+        <v>156.2</v>
       </c>
       <c r="AN80" t="n" s="10">
-        <v>155.1</v>
+        <v>155.2</v>
       </c>
       <c r="AO80" t="n" s="10">
-        <v>154.0</v>
+        <v>154.1</v>
       </c>
       <c r="AP80" t="n" s="10">
         <v>153.0</v>
@@ -28917,127 +28917,127 @@
         <v>149.4</v>
       </c>
       <c r="AV80" t="n" s="10">
-        <v>149.5</v>
+        <v>149.6</v>
       </c>
       <c r="AW80" t="n" s="10">
+        <v>149.8</v>
+      </c>
+      <c r="AX80" t="n" s="10">
+        <v>150.0</v>
+      </c>
+      <c r="AY80" t="n" s="10">
+        <v>150.3</v>
+      </c>
+      <c r="AZ80" t="n" s="10">
+        <v>150.7</v>
+      </c>
+      <c r="BA80" t="n" s="10">
+        <v>150.8</v>
+      </c>
+      <c r="BB80" t="n" s="10">
+        <v>150.7</v>
+      </c>
+      <c r="BC80" t="n" s="10">
+        <v>150.2</v>
+      </c>
+      <c r="BD80" t="n" s="10">
+        <v>149.4</v>
+      </c>
+      <c r="BE80" t="n" s="10">
+        <v>148.5</v>
+      </c>
+      <c r="BF80" t="n" s="10">
+        <v>147.6</v>
+      </c>
+      <c r="BG80" t="n" s="10">
+        <v>146.7</v>
+      </c>
+      <c r="BH80" t="n" s="10">
+        <v>146.0</v>
+      </c>
+      <c r="BI80" t="n" s="10">
+        <v>145.4</v>
+      </c>
+      <c r="BJ80" t="n" s="10">
+        <v>144.5</v>
+      </c>
+      <c r="BK80" t="n" s="10">
+        <v>143.6</v>
+      </c>
+      <c r="BL80" t="n" s="10">
+        <v>142.7</v>
+      </c>
+      <c r="BM80" t="n" s="10">
+        <v>141.9</v>
+      </c>
+      <c r="BN80" t="n" s="10">
+        <v>141.6</v>
+      </c>
+      <c r="BO80" t="n" s="10">
+        <v>141.9</v>
+      </c>
+      <c r="BP80" t="n" s="10">
+        <v>142.8</v>
+      </c>
+      <c r="BQ80" t="n" s="10">
+        <v>144.4</v>
+      </c>
+      <c r="BR80" t="n" s="10">
+        <v>146.7</v>
+      </c>
+      <c r="BS80" t="n" s="10">
         <v>149.6</v>
       </c>
-      <c r="AX80" t="n" s="10">
-        <v>149.9</v>
-      </c>
-      <c r="AY80" t="n" s="10">
-        <v>150.2</v>
-      </c>
-      <c r="AZ80" t="n" s="10">
-        <v>150.6</v>
-      </c>
-      <c r="BA80" t="n" s="10">
-        <v>150.9</v>
-      </c>
-      <c r="BB80" t="n" s="10">
-        <v>150.9</v>
-      </c>
-      <c r="BC80" t="n" s="10">
-        <v>150.6</v>
-      </c>
-      <c r="BD80" t="n" s="10">
-        <v>150.0</v>
-      </c>
-      <c r="BE80" t="n" s="10">
-        <v>149.2</v>
-      </c>
-      <c r="BF80" t="n" s="10">
-        <v>148.4</v>
-      </c>
-      <c r="BG80" t="n" s="10">
-        <v>147.6</v>
-      </c>
-      <c r="BH80" t="n" s="10">
-        <v>146.8</v>
-      </c>
-      <c r="BI80" t="n" s="10">
-        <v>146.1</v>
-      </c>
-      <c r="BJ80" t="n" s="10">
-        <v>145.2</v>
-      </c>
-      <c r="BK80" t="n" s="10">
-        <v>144.2</v>
-      </c>
-      <c r="BL80" t="n" s="10">
-        <v>143.3</v>
-      </c>
-      <c r="BM80" t="n" s="10">
-        <v>142.8</v>
-      </c>
-      <c r="BN80" t="n" s="10">
-        <v>142.8</v>
-      </c>
-      <c r="BO80" t="n" s="10">
-        <v>143.3</v>
-      </c>
-      <c r="BP80" t="n" s="10">
-        <v>144.5</v>
-      </c>
-      <c r="BQ80" t="n" s="10">
-        <v>146.4</v>
-      </c>
-      <c r="BR80" t="n" s="10">
-        <v>148.9</v>
-      </c>
-      <c r="BS80" t="n" s="10">
-        <v>152.1</v>
-      </c>
       <c r="BT80" t="n" s="10">
-        <v>156.1</v>
+        <v>153.2</v>
       </c>
       <c r="BU80" t="n" s="10">
-        <v>160.6</v>
+        <v>157.5</v>
       </c>
       <c r="BV80" t="n" s="10">
-        <v>165.3</v>
+        <v>162.2</v>
       </c>
       <c r="BW80" t="n" s="10">
-        <v>169.9</v>
+        <v>167.0</v>
       </c>
       <c r="BX80" t="n" s="10">
-        <v>174.3</v>
+        <v>171.6</v>
       </c>
       <c r="BY80" t="n" s="10">
-        <v>178.2</v>
+        <v>175.9</v>
       </c>
       <c r="BZ80" t="n" s="10">
-        <v>181.8</v>
+        <v>180.0</v>
       </c>
       <c r="CA80" t="n" s="10">
-        <v>184.7</v>
+        <v>183.3</v>
       </c>
       <c r="CB80" t="n" s="10">
-        <v>186.8</v>
+        <v>185.9</v>
       </c>
       <c r="CC80" t="n" s="10">
+        <v>187.6</v>
+      </c>
+      <c r="CD80" t="n" s="10">
+        <v>188.4</v>
+      </c>
+      <c r="CE80" t="n" s="10">
         <v>188.2</v>
       </c>
-      <c r="CD80" t="n" s="10">
-        <v>188.6</v>
-      </c>
-      <c r="CE80" t="n" s="10">
-        <v>188.1</v>
-      </c>
       <c r="CF80" t="n" s="10">
-        <v>186.8</v>
+        <v>187.1</v>
       </c>
       <c r="CG80" t="n" s="10">
-        <v>184.5</v>
+        <v>184.9</v>
       </c>
       <c r="CH80" t="n" s="10">
-        <v>181.7</v>
+        <v>182.0</v>
       </c>
       <c r="CI80" t="n" s="10">
-        <v>178.8</v>
+        <v>178.9</v>
       </c>
       <c r="CJ80" t="n" s="10">
-        <v>176.0</v>
+        <v>176.1</v>
       </c>
       <c r="CK80" t="n" s="10">
         <v>173.3</v>
@@ -29064,19 +29064,19 @@
         <v>157.3</v>
       </c>
       <c r="CS80" t="n" s="10">
-        <v>154.7</v>
+        <v>154.6</v>
       </c>
       <c r="CT80" t="n" s="10">
-        <v>152.2</v>
+        <v>152.1</v>
       </c>
       <c r="CU80" t="n" s="10">
-        <v>149.4</v>
+        <v>149.3</v>
       </c>
       <c r="CV80" t="n" s="10">
-        <v>146.2</v>
+        <v>146.1</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>143.0</v>
+        <v>142.9</v>
       </c>
       <c r="CX80" t="n" s="10">
         <v>140.0</v>
@@ -29130,7 +29130,7 @@
         <v>128.1</v>
       </c>
       <c r="DO80" t="n" s="10">
-        <v>127.9</v>
+        <v>127.8</v>
       </c>
       <c r="DP80" t="n" s="10">
         <v>127.7</v>
@@ -29154,25 +29154,25 @@
         <v>128.0</v>
       </c>
       <c r="DW80" t="n" s="10">
-        <v>128.3</v>
+        <v>128.4</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>128.6</v>
+        <v>128.7</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>129.0</v>
+        <v>129.1</v>
       </c>
       <c r="DZ80" t="n" s="10">
-        <v>129.3</v>
+        <v>129.4</v>
       </c>
       <c r="EA80" t="n" s="10">
-        <v>129.5</v>
+        <v>129.6</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>129.5</v>
+        <v>129.6</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>129.2</v>
+        <v>129.4</v>
       </c>
     </row>
     <row r="81" ht="22.5" customHeight="true">
@@ -30861,55 +30861,55 @@
         <v>79.9</v>
       </c>
       <c r="Z86" t="n" s="10">
-        <v>79.8</v>
+        <v>79.6</v>
       </c>
       <c r="AA86" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="AB86" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="AC86" t="n" s="10">
-        <v>79.6</v>
+        <v>79.5</v>
       </c>
       <c r="AD86" t="n" s="10">
         <v>79.4</v>
       </c>
       <c r="AE86" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="AF86" t="n" s="10">
         <v>79.5</v>
       </c>
       <c r="AG86" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="AH86" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="AI86" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="AJ86" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="AK86" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="AL86" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="AM86" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="AN86" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="AO86" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="AP86" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="AQ86" t="n" s="10">
         <v>82.6</v>
@@ -30924,13 +30924,13 @@
         <v>82.9</v>
       </c>
       <c r="AU86" t="n" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="AV86" t="n" s="10">
         <v>83.0</v>
       </c>
-      <c r="AV86" t="n" s="10">
-        <v>83.1</v>
-      </c>
       <c r="AW86" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="AX86" t="n" s="10">
         <v>83.5</v>
@@ -30939,7 +30939,7 @@
         <v>83.8</v>
       </c>
       <c r="AZ86" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="BA86" t="n" s="10">
         <v>84.4</v>
@@ -30951,10 +30951,10 @@
         <v>85.1</v>
       </c>
       <c r="BD86" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="BE86" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="BF86" t="n" s="10">
         <v>86.4</v>
@@ -30972,7 +30972,7 @@
         <v>88.1</v>
       </c>
       <c r="BK86" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="BL86" t="n" s="10">
         <v>89.1</v>
@@ -31014,7 +31014,7 @@
         <v>95.8</v>
       </c>
       <c r="BY86" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BZ86" t="n" s="10">
         <v>96.7</v>
@@ -31035,28 +31035,28 @@
         <v>98.8</v>
       </c>
       <c r="CF86" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="CG86" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="CH86" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="CI86" t="n" s="10">
+        <v>100.4</v>
+      </c>
+      <c r="CJ86" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="CK86" t="n" s="10">
         <v>100.3</v>
       </c>
-      <c r="CJ86" t="n" s="10">
-        <v>100.4</v>
-      </c>
-      <c r="CK86" t="n" s="10">
-        <v>100.2</v>
-      </c>
       <c r="CL86" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="CM86" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="CN86" t="n" s="10">
         <v>97.5</v>
@@ -31077,10 +31077,10 @@
         <v>87.9</v>
       </c>
       <c r="CT86" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="CU86" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="CV86" t="n" s="10">
         <v>82.6</v>
@@ -31116,16 +31116,16 @@
         <v>84.9</v>
       </c>
       <c r="DG86" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="DH86" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="DI86" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="DK86" t="n" s="10">
         <v>89.6</v>
@@ -31134,31 +31134,31 @@
         <v>90.5</v>
       </c>
       <c r="DM86" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="DN86" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DO86" t="n" s="10">
         <v>93.3</v>
       </c>
       <c r="DP86" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="DQ86" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="DR86" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DS86" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="DT86" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="DU86" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DV86" t="n" s="10">
         <v>97.7</v>
@@ -31170,13 +31170,13 @@
         <v>98.2</v>
       </c>
       <c r="DY86" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="DZ86" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="EA86" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="EB86" t="n" s="10">
         <v>98.2</v>
@@ -32871,34 +32871,34 @@
         <v>101.4</v>
       </c>
       <c r="Z92" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="AA92" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="AB92" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC92" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="AD92" t="n" s="10">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AE92" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="AF92" t="n" s="10">
         <v>103.0</v>
       </c>
       <c r="AG92" t="n" s="10">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AH92" t="n" s="10">
         <v>102.7</v>
       </c>
       <c r="AI92" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AJ92" t="n" s="10">
         <v>102.7</v>
@@ -32910,7 +32910,7 @@
         <v>102.9</v>
       </c>
       <c r="AM92" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AN92" t="n" s="10">
         <v>103.0</v>
@@ -32982,25 +32982,25 @@
         <v>106.3</v>
       </c>
       <c r="BK92" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="BL92" t="n" s="10">
         <v>106.6</v>
       </c>
       <c r="BM92" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="BN92" t="n" s="10">
         <v>105.9</v>
       </c>
       <c r="BO92" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="BP92" t="n" s="10">
         <v>104.7</v>
       </c>
       <c r="BQ92" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="BR92" t="n" s="10">
         <v>102.9</v>
@@ -33075,10 +33075,10 @@
         <v>100.4</v>
       </c>
       <c r="CP92" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="CQ92" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="CR92" t="n" s="10">
         <v>97.9</v>
@@ -33087,25 +33087,25 @@
         <v>97.2</v>
       </c>
       <c r="CT92" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="CU92" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CV92" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="CW92" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="CX92" t="n" s="10">
         <v>95.6</v>
       </c>
-      <c r="CW92" t="n" s="10">
-        <v>95.4</v>
-      </c>
-      <c r="CX92" t="n" s="10">
-        <v>95.7</v>
-      </c>
       <c r="CY92" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CZ92" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="DA92" t="n" s="10">
         <v>97.0</v>
@@ -33114,7 +33114,7 @@
         <v>97.5</v>
       </c>
       <c r="DC92" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DD92" t="n" s="10">
         <v>98.5</v>
@@ -33168,7 +33168,7 @@
         <v>97.3</v>
       </c>
       <c r="DU92" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DV92" t="n" s="10">
         <v>95.8</v>
@@ -33177,7 +33177,7 @@
         <v>95.2</v>
       </c>
       <c r="DX92" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="DY92" t="n" s="10">
         <v>94.4</v>
@@ -33192,7 +33192,7 @@
         <v>94.7</v>
       </c>
       <c r="EC92" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="93" ht="22.5" customHeight="true">
@@ -35133,10 +35133,10 @@
         <v>50</v>
       </c>
       <c r="DF98" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="DG98" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="DH98" t="n" s="10">
         <v>89.5</v>
@@ -35148,7 +35148,7 @@
         <v>92.4</v>
       </c>
       <c r="DK98" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="DL98" t="n" s="10">
         <v>94.2</v>
@@ -35157,7 +35157,7 @@
         <v>94.5</v>
       </c>
       <c r="DN98" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="DO98" t="n" s="10">
         <v>95.2</v>
@@ -35181,7 +35181,7 @@
         <v>97.1</v>
       </c>
       <c r="DV98" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DW98" t="n" s="10">
         <v>98.0</v>
@@ -35196,13 +35196,13 @@
         <v>99.1</v>
       </c>
       <c r="EA98" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="EB98" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="EC98" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="99" ht="22.5" customHeight="true">
@@ -36891,19 +36891,19 @@
         <v>84.4</v>
       </c>
       <c r="Z104" t="n" s="10">
-        <v>84.1</v>
+        <v>84.6</v>
       </c>
       <c r="AA104" t="n" s="10">
-        <v>84.1</v>
+        <v>84.5</v>
       </c>
       <c r="AB104" t="n" s="10">
-        <v>84.3</v>
+        <v>84.7</v>
       </c>
       <c r="AC104" t="n" s="10">
-        <v>84.5</v>
+        <v>84.8</v>
       </c>
       <c r="AD104" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="AE104" t="n" s="10">
         <v>84.8</v>
@@ -36912,64 +36912,64 @@
         <v>84.7</v>
       </c>
       <c r="AG104" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="AH104" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="AI104" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="AJ104" t="n" s="10">
-        <v>83.4</v>
+        <v>83.2</v>
       </c>
       <c r="AK104" t="n" s="10">
-        <v>82.9</v>
+        <v>82.7</v>
       </c>
       <c r="AL104" t="n" s="10">
-        <v>82.3</v>
+        <v>82.1</v>
       </c>
       <c r="AM104" t="n" s="10">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="AN104" t="n" s="10">
-        <v>81.1</v>
+        <v>80.9</v>
       </c>
       <c r="AO104" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="AP104" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="AQ104" t="n" s="10">
-        <v>79.1</v>
+        <v>79.0</v>
       </c>
       <c r="AR104" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="AS104" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="AT104" t="n" s="10">
         <v>77.0</v>
       </c>
       <c r="AU104" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="AV104" t="n" s="10">
         <v>75.8</v>
       </c>
       <c r="AW104" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="AX104" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="AY104" t="n" s="10">
         <v>75.0</v>
       </c>
       <c r="AZ104" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="BA104" t="n" s="10">
         <v>74.6</v>
@@ -36978,7 +36978,7 @@
         <v>74.5</v>
       </c>
       <c r="BC104" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="BD104" t="n" s="10">
         <v>74.2</v>
@@ -36990,10 +36990,10 @@
         <v>74.3</v>
       </c>
       <c r="BG104" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="BH104" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="BI104" t="n" s="10">
         <v>74.9</v>
@@ -37014,25 +37014,25 @@
         <v>78.6</v>
       </c>
       <c r="BO104" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="BP104" t="n" s="10">
         <v>80.9</v>
       </c>
       <c r="BQ104" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="BR104" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="BS104" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="BT104" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="BU104" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="BV104" t="n" s="10">
         <v>84.3</v>
@@ -37056,40 +37056,40 @@
         <v>82.5</v>
       </c>
       <c r="CC104" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="CD104" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="CE104" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="CF104" t="n" s="10">
         <v>82.5</v>
       </c>
-      <c r="CD104" t="n" s="10">
+      <c r="CG104" t="n" s="10">
+        <v>82.6</v>
+      </c>
+      <c r="CH104" t="n" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="CI104" t="n" s="10">
+        <v>82.8</v>
+      </c>
+      <c r="CJ104" t="n" s="10">
         <v>82.5</v>
       </c>
-      <c r="CE104" t="n" s="10">
-        <v>82.5</v>
-      </c>
-      <c r="CF104" t="n" s="10">
-        <v>82.6</v>
-      </c>
-      <c r="CG104" t="n" s="10">
-        <v>82.8</v>
-      </c>
-      <c r="CH104" t="n" s="10">
-        <v>83.0</v>
-      </c>
-      <c r="CI104" t="n" s="10">
-        <v>83.0</v>
-      </c>
-      <c r="CJ104" t="n" s="10">
-        <v>82.7</v>
-      </c>
       <c r="CK104" t="n" s="10">
-        <v>82.4</v>
+        <v>82.2</v>
       </c>
       <c r="CL104" t="n" s="10">
-        <v>82.0</v>
+        <v>81.8</v>
       </c>
       <c r="CM104" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="CN104" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="CO104" t="n" s="10">
         <v>80.7</v>
@@ -37098,40 +37098,40 @@
         <v>80.4</v>
       </c>
       <c r="CQ104" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="CR104" t="n" s="10">
-        <v>80.1</v>
+        <v>80.3</v>
       </c>
       <c r="CS104" t="n" s="10">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="CT104" t="n" s="10">
-        <v>80.6</v>
+        <v>80.8</v>
       </c>
       <c r="CU104" t="n" s="10">
-        <v>81.1</v>
+        <v>81.3</v>
       </c>
       <c r="CV104" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="CW104" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="CX104" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="CY104" t="n" s="10">
         <v>81.8</v>
       </c>
-      <c r="CX104" t="n" s="10">
-        <v>81.8</v>
-      </c>
-      <c r="CY104" t="n" s="10">
+      <c r="CZ104" t="n" s="10">
         <v>81.7</v>
       </c>
-      <c r="CZ104" t="n" s="10">
-        <v>81.6</v>
-      </c>
       <c r="DA104" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DB104" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="DC104" t="n" s="10">
         <v>80.9</v>
@@ -37140,7 +37140,7 @@
         <v>80.7</v>
       </c>
       <c r="DE104" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="DF104" t="n" s="10">
         <v>80.4</v>
@@ -37149,13 +37149,13 @@
         <v>80.5</v>
       </c>
       <c r="DH104" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="DI104" t="n" s="10">
         <v>81.6</v>
       </c>
       <c r="DJ104" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DK104" t="n" s="10">
         <v>83.5</v>
@@ -37164,55 +37164,55 @@
         <v>84.6</v>
       </c>
       <c r="DM104" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="DN104" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="DO104" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DP104" t="n" s="10">
         <v>89.1</v>
       </c>
       <c r="DQ104" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="DR104" t="n" s="10">
-        <v>90.7</v>
+        <v>90.4</v>
       </c>
       <c r="DS104" t="n" s="10">
-        <v>91.2</v>
+        <v>90.8</v>
       </c>
       <c r="DT104" t="n" s="10">
-        <v>91.4</v>
+        <v>91.0</v>
       </c>
       <c r="DU104" t="n" s="10">
-        <v>91.4</v>
+        <v>91.1</v>
       </c>
       <c r="DV104" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="DW104" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="DX104" t="n" s="10">
-        <v>91.3</v>
+        <v>91.7</v>
       </c>
       <c r="DY104" t="n" s="10">
-        <v>91.2</v>
+        <v>91.9</v>
       </c>
       <c r="DZ104" t="n" s="10">
-        <v>91.1</v>
+        <v>92.1</v>
       </c>
       <c r="EA104" t="n" s="10">
-        <v>91.0</v>
+        <v>92.3</v>
       </c>
       <c r="EB104" t="n" s="10">
-        <v>91.0</v>
+        <v>92.5</v>
       </c>
       <c r="EC104" t="n" s="10">
-        <v>91.1</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="105" ht="22.5" customHeight="true">
@@ -38901,19 +38901,19 @@
         <v>81.4</v>
       </c>
       <c r="Z110" t="n" s="10">
-        <v>80.6</v>
+        <v>81.1</v>
       </c>
       <c r="AA110" t="n" s="10">
-        <v>80.7</v>
+        <v>81.1</v>
       </c>
       <c r="AB110" t="n" s="10">
-        <v>81.1</v>
+        <v>81.4</v>
       </c>
       <c r="AC110" t="n" s="10">
-        <v>81.4</v>
+        <v>81.6</v>
       </c>
       <c r="AD110" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="AE110" t="n" s="10">
         <v>81.9</v>
@@ -38922,37 +38922,37 @@
         <v>82.0</v>
       </c>
       <c r="AG110" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="AH110" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="AI110" t="n" s="10">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>81.1</v>
+        <v>80.9</v>
       </c>
       <c r="AK110" t="n" s="10">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="AL110" t="n" s="10">
-        <v>80.2</v>
+        <v>80.0</v>
       </c>
       <c r="AM110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.4</v>
       </c>
       <c r="AN110" t="n" s="10">
-        <v>79.0</v>
+        <v>78.8</v>
       </c>
       <c r="AO110" t="n" s="10">
-        <v>78.3</v>
+        <v>78.1</v>
       </c>
       <c r="AP110" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="AQ110" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="AR110" t="n" s="10">
         <v>75.9</v>
@@ -38964,22 +38964,22 @@
         <v>74.3</v>
       </c>
       <c r="AU110" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="AV110" t="n" s="10">
-        <v>72.8</v>
+        <v>72.9</v>
       </c>
       <c r="AW110" t="n" s="10">
-        <v>72.3</v>
+        <v>72.4</v>
       </c>
       <c r="AX110" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="AY110" t="n" s="10">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="AZ110" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="BA110" t="n" s="10">
         <v>71.2</v>
@@ -39018,16 +39018,16 @@
         <v>73.6</v>
       </c>
       <c r="BM110" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="BN110" t="n" s="10">
-        <v>75.7</v>
+        <v>75.6</v>
       </c>
       <c r="BO110" t="n" s="10">
         <v>76.8</v>
       </c>
       <c r="BP110" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="BQ110" t="n" s="10">
         <v>79.0</v>
@@ -39036,16 +39036,16 @@
         <v>79.9</v>
       </c>
       <c r="BS110" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="BT110" t="n" s="10">
+        <v>81.1</v>
+      </c>
+      <c r="BU110" t="n" s="10">
+        <v>81.3</v>
+      </c>
+      <c r="BV110" t="n" s="10">
         <v>81.2</v>
-      </c>
-      <c r="BU110" t="n" s="10">
-        <v>81.4</v>
-      </c>
-      <c r="BV110" t="n" s="10">
-        <v>81.3</v>
       </c>
       <c r="BW110" t="n" s="10">
         <v>80.9</v>
@@ -39063,79 +39063,79 @@
         <v>79.7</v>
       </c>
       <c r="CB110" t="n" s="10">
+        <v>79.6</v>
+      </c>
+      <c r="CC110" t="n" s="10">
+        <v>79.6</v>
+      </c>
+      <c r="CD110" t="n" s="10">
+        <v>79.6</v>
+      </c>
+      <c r="CE110" t="n" s="10">
+        <v>79.6</v>
+      </c>
+      <c r="CF110" t="n" s="10">
+        <v>79.6</v>
+      </c>
+      <c r="CG110" t="n" s="10">
         <v>79.7</v>
       </c>
-      <c r="CC110" t="n" s="10">
+      <c r="CH110" t="n" s="10">
         <v>79.7</v>
       </c>
-      <c r="CD110" t="n" s="10">
-        <v>79.7</v>
-      </c>
-      <c r="CE110" t="n" s="10">
-        <v>79.7</v>
-      </c>
-      <c r="CF110" t="n" s="10">
-        <v>79.7</v>
-      </c>
-      <c r="CG110" t="n" s="10">
-        <v>79.8</v>
-      </c>
-      <c r="CH110" t="n" s="10">
-        <v>79.9</v>
-      </c>
       <c r="CI110" t="n" s="10">
-        <v>79.8</v>
+        <v>79.6</v>
       </c>
       <c r="CJ110" t="n" s="10">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="CK110" t="n" s="10">
-        <v>79.1</v>
+        <v>78.9</v>
       </c>
       <c r="CL110" t="n" s="10">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="CM110" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="CN110" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="CO110" t="n" s="10">
         <v>77.4</v>
       </c>
       <c r="CP110" t="n" s="10">
+        <v>77.1</v>
+      </c>
+      <c r="CQ110" t="n" s="10">
+        <v>76.9</v>
+      </c>
+      <c r="CR110" t="n" s="10">
+        <v>76.9</v>
+      </c>
+      <c r="CS110" t="n" s="10">
         <v>77.0</v>
       </c>
-      <c r="CQ110" t="n" s="10">
-        <v>76.8</v>
-      </c>
-      <c r="CR110" t="n" s="10">
-        <v>76.8</v>
-      </c>
-      <c r="CS110" t="n" s="10">
-        <v>76.9</v>
-      </c>
       <c r="CT110" t="n" s="10">
-        <v>77.1</v>
+        <v>77.3</v>
       </c>
       <c r="CU110" t="n" s="10">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="CV110" t="n" s="10">
-        <v>77.9</v>
+        <v>78.1</v>
       </c>
       <c r="CW110" t="n" s="10">
+        <v>78.3</v>
+      </c>
+      <c r="CX110" t="n" s="10">
+        <v>78.3</v>
+      </c>
+      <c r="CY110" t="n" s="10">
         <v>78.2</v>
       </c>
-      <c r="CX110" t="n" s="10">
-        <v>78.2</v>
-      </c>
-      <c r="CY110" t="n" s="10">
+      <c r="CZ110" t="n" s="10">
         <v>78.1</v>
-      </c>
-      <c r="CZ110" t="n" s="10">
-        <v>78.0</v>
       </c>
       <c r="DA110" t="n" s="10">
         <v>77.9</v>
@@ -39168,61 +39168,61 @@
         <v>78.9</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="DM110" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DN110" t="n" s="10">
         <v>82.4</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="DR110" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="DS110" t="n" s="10">
-        <v>86.1</v>
+        <v>85.9</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="DU110" t="n" s="10">
-        <v>86.9</v>
+        <v>86.7</v>
       </c>
       <c r="DV110" t="n" s="10">
         <v>87.3</v>
       </c>
       <c r="DW110" t="n" s="10">
-        <v>87.8</v>
+        <v>88.0</v>
       </c>
       <c r="DX110" t="n" s="10">
-        <v>88.2</v>
+        <v>88.6</v>
       </c>
       <c r="DY110" t="n" s="10">
-        <v>88.6</v>
+        <v>89.3</v>
       </c>
       <c r="DZ110" t="n" s="10">
-        <v>88.9</v>
+        <v>89.9</v>
       </c>
       <c r="EA110" t="n" s="10">
-        <v>89.2</v>
+        <v>90.5</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>89.5</v>
+        <v>90.9</v>
       </c>
       <c r="EC110" t="n" s="10">
-        <v>89.8</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="111" ht="22.5" customHeight="true">
@@ -40911,49 +40911,49 @@
         <v>89.9</v>
       </c>
       <c r="Z116" t="n" s="10">
-        <v>90.1</v>
+        <v>89.9</v>
       </c>
       <c r="AA116" t="n" s="10">
+        <v>89.7</v>
+      </c>
+      <c r="AB116" t="n" s="10">
         <v>89.8</v>
-      </c>
-      <c r="AB116" t="n" s="10">
-        <v>89.9</v>
       </c>
       <c r="AC116" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="AD116" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="AE116" t="n" s="10">
         <v>89.9</v>
       </c>
-      <c r="AE116" t="n" s="10">
-        <v>89.8</v>
-      </c>
       <c r="AF116" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="AG116" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="AH116" t="n" s="10">
-        <v>88.4</v>
+        <v>88.6</v>
       </c>
       <c r="AI116" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="AJ116" t="n" s="10">
-        <v>87.4</v>
+        <v>87.6</v>
       </c>
       <c r="AK116" t="n" s="10">
-        <v>86.8</v>
+        <v>87.0</v>
       </c>
       <c r="AL116" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="AM116" t="n" s="10">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
       <c r="AN116" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="AO116" t="n" s="10">
         <v>84.4</v>
@@ -40974,64 +40974,64 @@
         <v>81.8</v>
       </c>
       <c r="AU116" t="n" s="10">
-        <v>81.4</v>
+        <v>81.3</v>
       </c>
       <c r="AV116" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="AW116" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="AX116" t="n" s="10">
         <v>80.9</v>
       </c>
       <c r="AY116" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="AZ116" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="BA116" t="n" s="10">
         <v>80.7</v>
       </c>
       <c r="BB116" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="BC116" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="BD116" t="n" s="10">
         <v>80.1</v>
       </c>
       <c r="BE116" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="BF116" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="BG116" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="BH116" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="BI116" t="n" s="10">
         <v>80.1</v>
       </c>
       <c r="BJ116" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="BK116" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="BL116" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="BM116" t="n" s="10">
         <v>82.5</v>
       </c>
       <c r="BN116" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="BO116" t="n" s="10">
         <v>84.8</v>
@@ -41040,7 +41040,7 @@
         <v>86.0</v>
       </c>
       <c r="BQ116" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="BR116" t="n" s="10">
         <v>88.1</v>
@@ -41061,13 +41061,13 @@
         <v>89.2</v>
       </c>
       <c r="BX116" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="BY116" t="n" s="10">
         <v>88.1</v>
       </c>
       <c r="BZ116" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="CA116" t="n" s="10">
         <v>87.7</v>
@@ -41076,7 +41076,7 @@
         <v>87.6</v>
       </c>
       <c r="CC116" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="CD116" t="n" s="10">
         <v>87.7</v>
@@ -41085,7 +41085,7 @@
         <v>87.8</v>
       </c>
       <c r="CF116" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="CG116" t="n" s="10">
         <v>88.3</v>
@@ -41094,25 +41094,25 @@
         <v>88.7</v>
       </c>
       <c r="CI116" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="CJ116" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="CK116" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="CL116" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="CM116" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="CN116" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="CO116" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="CP116" t="n" s="10">
         <v>86.4</v>
@@ -41124,16 +41124,16 @@
         <v>86.2</v>
       </c>
       <c r="CS116" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="CT116" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="CU116" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="CV116" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="CW116" t="n" s="10">
         <v>88.5</v>
@@ -41154,70 +41154,70 @@
         <v>87.6</v>
       </c>
       <c r="DC116" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DD116" t="n" s="10">
         <v>87.0</v>
       </c>
       <c r="DE116" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="DF116" t="n" s="10">
         <v>86.5</v>
       </c>
       <c r="DG116" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="DH116" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="DI116" t="n" s="10">
         <v>87.3</v>
       </c>
       <c r="DJ116" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="DK116" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="DL116" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="DM116" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="DN116" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DO116" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="DP116" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="DQ116" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="DR116" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="DS116" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="DT116" t="n" s="10">
+        <v>96.7</v>
+      </c>
+      <c r="DU116" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="DV116" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="DW116" t="n" s="10">
         <v>96.2</v>
       </c>
-      <c r="DS116" t="n" s="10">
-        <v>96.7</v>
-      </c>
-      <c r="DT116" t="n" s="10">
-        <v>96.8</v>
-      </c>
-      <c r="DU116" t="n" s="10">
-        <v>96.7</v>
-      </c>
-      <c r="DV116" t="n" s="10">
-        <v>96.5</v>
-      </c>
-      <c r="DW116" t="n" s="10">
-        <v>96.3</v>
-      </c>
       <c r="DX116" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="DY116" t="n" s="10">
         <v>95.5</v>
@@ -43239,7 +43239,7 @@
         <v>108.4</v>
       </c>
       <c r="EB122" t="n" s="10">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="EC122" t="n" s="10">
         <v>108.6</v>
@@ -45183,34 +45183,34 @@
         <v>50</v>
       </c>
       <c r="DF128" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="DG128" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="DH128" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DI128" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="DJ128" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="DK128" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="DL128" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="DM128" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="DN128" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="DO128" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="DP128" t="n" s="10">
         <v>94.6</v>
@@ -45228,7 +45228,7 @@
         <v>97.3</v>
       </c>
       <c r="DU128" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="DV128" t="n" s="10">
         <v>98.1</v>
@@ -45246,13 +45246,13 @@
         <v>98.6</v>
       </c>
       <c r="EA128" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="EB128" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="EC128" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="129" ht="22.5" customHeight="true">
@@ -46941,10 +46941,10 @@
         <v>73.5</v>
       </c>
       <c r="Z134" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="AA134" t="n" s="10">
-        <v>74.0</v>
+        <v>73.8</v>
       </c>
       <c r="AB134" t="n" s="10">
         <v>73.8</v>
@@ -46959,37 +46959,37 @@
         <v>73.4</v>
       </c>
       <c r="AF134" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="AG134" t="n" s="10">
-        <v>74.0</v>
+        <v>74.1</v>
       </c>
       <c r="AH134" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AI134" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="AJ134" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="AK134" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="AL134" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="AM134" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="AN134" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="AO134" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="AP134" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="AQ134" t="n" s="10">
         <v>77.6</v>
@@ -47007,46 +47007,46 @@
         <v>78.1</v>
       </c>
       <c r="AV134" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="AW134" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="AX134" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="AY134" t="n" s="10">
-        <v>79.1</v>
+        <v>79.0</v>
       </c>
       <c r="AZ134" t="n" s="10">
         <v>79.4</v>
       </c>
       <c r="BA134" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="BB134" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="BC134" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="BD134" t="n" s="10">
         <v>81.4</v>
       </c>
       <c r="BE134" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="BF134" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="BG134" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="BH134" t="n" s="10">
         <v>83.5</v>
       </c>
       <c r="BI134" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="BJ134" t="n" s="10">
         <v>84.4</v>
@@ -47058,19 +47058,19 @@
         <v>85.5</v>
       </c>
       <c r="BM134" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="BN134" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="BO134" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="BP134" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="BQ134" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="BR134" t="n" s="10">
         <v>89.6</v>
@@ -47094,7 +47094,7 @@
         <v>93.3</v>
       </c>
       <c r="BY134" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="BZ134" t="n" s="10">
         <v>94.6</v>
@@ -47112,31 +47112,31 @@
         <v>97.4</v>
       </c>
       <c r="CE134" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="CF134" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="CG134" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="CH134" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CI134" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="CJ134" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="CK134" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="CL134" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="CM134" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="CN134" t="n" s="10">
         <v>99.2</v>
@@ -47154,7 +47154,7 @@
         <v>91.8</v>
       </c>
       <c r="CS134" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="CT134" t="n" s="10">
         <v>87.0</v>
@@ -47193,7 +47193,7 @@
         <v>77.4</v>
       </c>
       <c r="DF134" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="DG134" t="n" s="10">
         <v>79.4</v>
@@ -47211,31 +47211,31 @@
         <v>83.7</v>
       </c>
       <c r="DL134" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="DM134" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="DN134" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DO134" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="DP134" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="DQ134" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="DR134" t="n" s="10">
         <v>91.8</v>
       </c>
       <c r="DS134" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="DT134" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="DU134" t="n" s="10">
         <v>94.4</v>
@@ -47259,7 +47259,7 @@
         <v>97.3</v>
       </c>
       <c r="EB134" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="EC134" t="n" s="10">
         <v>97.7</v>
@@ -48960,7 +48960,7 @@
         <v>91.5</v>
       </c>
       <c r="AC140" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="AD140" t="n" s="10">
         <v>90.9</v>
@@ -48969,31 +48969,31 @@
         <v>90.7</v>
       </c>
       <c r="AF140" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="AG140" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="AH140" t="n" s="10">
         <v>91.0</v>
       </c>
       <c r="AI140" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="AJ140" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="AK140" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="AL140" t="n" s="10">
         <v>91.1</v>
       </c>
       <c r="AM140" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="AN140" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="AO140" t="n" s="10">
         <v>91.1</v>
@@ -49008,19 +49008,19 @@
         <v>91.0</v>
       </c>
       <c r="AS140" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="AT140" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="AU140" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="AV140" t="n" s="10">
         <v>91.0</v>
       </c>
       <c r="AW140" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="AX140" t="n" s="10">
         <v>91.4</v>
@@ -49032,10 +49032,10 @@
         <v>91.8</v>
       </c>
       <c r="BA140" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="BB140" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="BC140" t="n" s="10">
         <v>92.7</v>
@@ -49044,25 +49044,25 @@
         <v>93.0</v>
       </c>
       <c r="BE140" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="BF140" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BG140" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="BH140" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="BI140" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BJ140" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="BK140" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="BL140" t="n" s="10">
         <v>95.1</v>
@@ -49071,7 +49071,7 @@
         <v>95.5</v>
       </c>
       <c r="BN140" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="BO140" t="n" s="10">
         <v>96.4</v>
@@ -49125,7 +49125,7 @@
         <v>101.9</v>
       </c>
       <c r="CF140" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="CG140" t="n" s="10">
         <v>101.8</v>
@@ -49140,34 +49140,34 @@
         <v>101.5</v>
       </c>
       <c r="CK140" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="CL140" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="CM140" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CN140" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="CO140" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="CP140" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="CQ140" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="CR140" t="n" s="10">
         <v>95.7</v>
       </c>
       <c r="CS140" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="CT140" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="CU140" t="n" s="10">
         <v>92.8</v>
@@ -49200,7 +49200,7 @@
         <v>91.5</v>
       </c>
       <c r="DE140" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="DF140" t="n" s="10">
         <v>92.5</v>
@@ -49215,7 +49215,7 @@
         <v>93.9</v>
       </c>
       <c r="DJ140" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="DK140" t="n" s="10">
         <v>94.8</v>
@@ -49230,16 +49230,16 @@
         <v>96.3</v>
       </c>
       <c r="DO140" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="DP140" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DQ140" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DR140" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DS140" t="n" s="10">
         <v>98.2</v>
@@ -49257,16 +49257,16 @@
         <v>97.9</v>
       </c>
       <c r="DX140" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DY140" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DZ140" t="n" s="10">
         <v>96.7</v>
       </c>
       <c r="EA140" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="EB140" t="n" s="10">
         <v>95.9</v>
@@ -50985,22 +50985,22 @@
         <v>93.9</v>
       </c>
       <c r="AH146" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AI146" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AJ146" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AK146" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="AL146" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AM146" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AN146" t="n" s="10">
         <v>94.0</v>
@@ -51012,7 +51012,7 @@
         <v>94.0</v>
       </c>
       <c r="AQ146" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="AR146" t="n" s="10">
         <v>94.2</v>
@@ -51051,37 +51051,37 @@
         <v>98.1</v>
       </c>
       <c r="BD146" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="BE146" t="n" s="10">
         <v>98.8</v>
       </c>
       <c r="BF146" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="BG146" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="BH146" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BI146" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BJ146" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="BK146" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="BL146" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="BM146" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="BN146" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="BO146" t="n" s="10">
         <v>100.3</v>
@@ -51090,49 +51090,49 @@
         <v>100.4</v>
       </c>
       <c r="BQ146" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="BR146" t="n" s="10">
         <v>100.6</v>
       </c>
-      <c r="BR146" t="n" s="10">
-        <v>100.7</v>
-      </c>
       <c r="BS146" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="BT146" t="n" s="10">
+        <v>101.0</v>
+      </c>
+      <c r="BU146" t="n" s="10">
         <v>101.2</v>
       </c>
-      <c r="BU146" t="n" s="10">
-        <v>101.4</v>
-      </c>
       <c r="BV146" t="n" s="10">
+        <v>101.3</v>
+      </c>
+      <c r="BW146" t="n" s="10">
         <v>101.5</v>
       </c>
-      <c r="BW146" t="n" s="10">
-        <v>101.7</v>
-      </c>
       <c r="BX146" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="BY146" t="n" s="10">
+        <v>101.8</v>
+      </c>
+      <c r="BZ146" t="n" s="10">
         <v>101.9</v>
       </c>
-      <c r="BY146" t="n" s="10">
+      <c r="CA146" t="n" s="10">
         <v>102.0</v>
       </c>
-      <c r="BZ146" t="n" s="10">
+      <c r="CB146" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="CA146" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="CB146" t="n" s="10">
-        <v>102.3</v>
-      </c>
       <c r="CC146" t="n" s="10">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="CD146" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="CE146" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="CF146" t="n" s="10">
         <v>101.8</v>
@@ -51141,13 +51141,13 @@
         <v>101.6</v>
       </c>
       <c r="CH146" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="CI146" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="CJ146" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="CK146" t="n" s="10">
         <v>100.5</v>
@@ -51186,25 +51186,25 @@
         <v>99.1</v>
       </c>
       <c r="CW146" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="CX146" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="CY146" t="n" s="10">
+        <v>99.1</v>
+      </c>
+      <c r="CZ146" t="n" s="10">
         <v>99.2</v>
       </c>
-      <c r="CZ146" t="n" s="10">
+      <c r="DA146" t="n" s="10">
         <v>99.3</v>
       </c>
-      <c r="DA146" t="n" s="10">
+      <c r="DB146" t="n" s="10">
         <v>99.4</v>
       </c>
-      <c r="DB146" t="n" s="10">
+      <c r="DC146" t="n" s="10">
         <v>99.5</v>
-      </c>
-      <c r="DC146" t="n" s="10">
-        <v>99.6</v>
       </c>
       <c r="DD146" t="n" s="10">
         <v>99.7</v>
@@ -51213,19 +51213,19 @@
         <v>99.9</v>
       </c>
       <c r="DF146" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="DG146" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="DH146" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DI146" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DJ146" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DK146" t="n" s="10">
         <v>100.2</v>
@@ -51267,7 +51267,7 @@
         <v>101.1</v>
       </c>
       <c r="DX146" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="DY146" t="n" s="10">
         <v>101.2</v>
@@ -51279,10 +51279,10 @@
         <v>101.2</v>
       </c>
       <c r="EB146" t="n" s="10">
+        <v>101.2</v>
+      </c>
+      <c r="EC146" t="n" s="10">
         <v>101.1</v>
-      </c>
-      <c r="EC146" t="n" s="10">
-        <v>101.0</v>
       </c>
     </row>
     <row r="147" ht="22.5" customHeight="true">
@@ -52971,10 +52971,10 @@
         <v>83.8</v>
       </c>
       <c r="Z152" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="AA152" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="AB152" t="n" s="10">
         <v>83.9</v>
@@ -52995,7 +52995,7 @@
         <v>83.1</v>
       </c>
       <c r="AH152" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="AI152" t="n" s="10">
         <v>83.0</v>
@@ -53019,7 +53019,7 @@
         <v>84.3</v>
       </c>
       <c r="AP152" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="AQ152" t="n" s="10">
         <v>85.2</v>
@@ -53073,7 +53073,7 @@
         <v>91.0</v>
       </c>
       <c r="BH152" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="BI152" t="n" s="10">
         <v>91.5</v>
@@ -53085,7 +53085,7 @@
         <v>92.1</v>
       </c>
       <c r="BL152" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="BM152" t="n" s="10">
         <v>92.7</v>
@@ -53094,7 +53094,7 @@
         <v>93.1</v>
       </c>
       <c r="BO152" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="BP152" t="n" s="10">
         <v>94.0</v>
@@ -53115,7 +53115,7 @@
         <v>96.8</v>
       </c>
       <c r="BV152" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="BW152" t="n" s="10">
         <v>97.8</v>
@@ -53151,10 +53151,10 @@
         <v>99.8</v>
       </c>
       <c r="CH152" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CI152" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CJ152" t="n" s="10">
         <v>99.6</v>
@@ -53181,16 +53181,16 @@
         <v>91.0</v>
       </c>
       <c r="CR152" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="CS152" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="CT152" t="n" s="10">
         <v>86.6</v>
       </c>
       <c r="CU152" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="CV152" t="n" s="10">
         <v>85.1</v>
@@ -53214,7 +53214,7 @@
         <v>88.7</v>
       </c>
       <c r="DC152" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="DD152" t="n" s="10">
         <v>91.3</v>
@@ -53262,10 +53262,10 @@
         <v>100.0</v>
       </c>
       <c r="DS152" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="DT152" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="DU152" t="n" s="10">
         <v>99.7</v>
@@ -53274,7 +53274,7 @@
         <v>99.3</v>
       </c>
       <c r="DW152" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DX152" t="n" s="10">
         <v>98.3</v>
@@ -54981,19 +54981,19 @@
         <v>83.4</v>
       </c>
       <c r="Z158" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="AA158" t="n" s="10">
         <v>82.2</v>
       </c>
-      <c r="AA158" t="n" s="10">
+      <c r="AB158" t="n" s="10">
         <v>82.4</v>
       </c>
-      <c r="AB158" t="n" s="10">
+      <c r="AC158" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="AD158" t="n" s="10">
         <v>82.5</v>
-      </c>
-      <c r="AC158" t="n" s="10">
-        <v>82.5</v>
-      </c>
-      <c r="AD158" t="n" s="10">
-        <v>82.6</v>
       </c>
       <c r="AE158" t="n" s="10">
         <v>82.7</v>
@@ -55002,40 +55002,40 @@
         <v>83.0</v>
       </c>
       <c r="AG158" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="AH158" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="AI158" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="AJ158" t="n" s="10">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="AK158" t="n" s="10">
-        <v>84.8</v>
+        <v>85.0</v>
       </c>
       <c r="AL158" t="n" s="10">
-        <v>85.1</v>
+        <v>85.3</v>
       </c>
       <c r="AM158" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="AN158" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="AO158" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="AP158" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="AQ158" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="AR158" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="AS158" t="n" s="10">
         <v>86.1</v>
@@ -55056,7 +55056,7 @@
         <v>85.9</v>
       </c>
       <c r="AY158" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="AZ158" t="n" s="10">
         <v>86.0</v>
@@ -55065,7 +55065,7 @@
         <v>86.1</v>
       </c>
       <c r="BB158" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="BC158" t="n" s="10">
         <v>86.5</v>
@@ -55083,7 +55083,7 @@
         <v>88.1</v>
       </c>
       <c r="BH158" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="BI158" t="n" s="10">
         <v>89.1</v>
@@ -55098,7 +55098,7 @@
         <v>91.2</v>
       </c>
       <c r="BM158" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="BN158" t="n" s="10">
         <v>92.9</v>
@@ -55119,7 +55119,7 @@
         <v>96.7</v>
       </c>
       <c r="BT158" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="BU158" t="n" s="10">
         <v>97.9</v>
@@ -55128,115 +55128,115 @@
         <v>98.4</v>
       </c>
       <c r="BW158" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="BX158" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="BY158" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="BZ158" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="CA158" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="CB158" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="CC158" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CD158" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="CE158" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CF158" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="CG158" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="CH158" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="CI158" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="CJ158" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="CK158" t="n" s="10">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="CL158" t="n" s="10">
-        <v>103.0</v>
+        <v>103.2</v>
       </c>
       <c r="CM158" t="n" s="10">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="CN158" t="n" s="10">
-        <v>99.9</v>
+        <v>100.2</v>
       </c>
       <c r="CO158" t="n" s="10">
-        <v>97.6</v>
+        <v>97.9</v>
       </c>
       <c r="CP158" t="n" s="10">
-        <v>94.9</v>
+        <v>95.3</v>
       </c>
       <c r="CQ158" t="n" s="10">
-        <v>91.9</v>
+        <v>92.3</v>
       </c>
       <c r="CR158" t="n" s="10">
-        <v>88.7</v>
+        <v>89.1</v>
       </c>
       <c r="CS158" t="n" s="10">
-        <v>85.6</v>
+        <v>86.0</v>
       </c>
       <c r="CT158" t="n" s="10">
-        <v>82.7</v>
+        <v>83.2</v>
       </c>
       <c r="CU158" t="n" s="10">
-        <v>80.1</v>
+        <v>80.6</v>
       </c>
       <c r="CV158" t="n" s="10">
-        <v>78.0</v>
+        <v>78.4</v>
       </c>
       <c r="CW158" t="n" s="10">
-        <v>76.4</v>
+        <v>76.8</v>
       </c>
       <c r="CX158" t="n" s="10">
-        <v>75.4</v>
+        <v>75.7</v>
       </c>
       <c r="CY158" t="n" s="10">
-        <v>75.0</v>
+        <v>75.2</v>
       </c>
       <c r="CZ158" t="n" s="10">
-        <v>75.1</v>
+        <v>75.3</v>
       </c>
       <c r="DA158" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="DB158" t="n" s="10">
         <v>77.0</v>
       </c>
       <c r="DC158" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="DD158" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="DE158" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="DF158" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DG158" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="DH158" t="n" s="10">
         <v>85.9</v>
@@ -55248,10 +55248,10 @@
         <v>88.0</v>
       </c>
       <c r="DK158" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="DL158" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="DM158" t="n" s="10">
         <v>90.8</v>
@@ -55272,19 +55272,19 @@
         <v>95.2</v>
       </c>
       <c r="DS158" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DT158" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="DU158" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DV158" t="n" s="10">
         <v>97.6</v>
       </c>
       <c r="DW158" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DX158" t="n" s="10">
         <v>98.2</v>
@@ -55296,13 +55296,13 @@
         <v>98.3</v>
       </c>
       <c r="EA158" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="EB158" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="EC158" t="n" s="10">
-        <v>97.7</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="159" ht="22.5" customHeight="true">
@@ -56991,7 +56991,7 @@
         <v>65.0</v>
       </c>
       <c r="Z164" t="n" s="10">
-        <v>64.7</v>
+        <v>64.8</v>
       </c>
       <c r="AA164" t="n" s="10">
         <v>65.0</v>
@@ -57012,7 +57012,7 @@
         <v>65.8</v>
       </c>
       <c r="AG164" t="n" s="10">
-        <v>66.4</v>
+        <v>66.3</v>
       </c>
       <c r="AH164" t="n" s="10">
         <v>66.8</v>
@@ -57033,16 +57033,16 @@
         <v>69.1</v>
       </c>
       <c r="AN164" t="n" s="10">
-        <v>69.4</v>
+        <v>69.5</v>
       </c>
       <c r="AO164" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="AP164" t="n" s="10">
         <v>70.2</v>
       </c>
       <c r="AQ164" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="AR164" t="n" s="10">
         <v>70.7</v>
@@ -57060,13 +57060,13 @@
         <v>71.8</v>
       </c>
       <c r="AW164" t="n" s="10">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="AX164" t="n" s="10">
         <v>72.8</v>
       </c>
       <c r="AY164" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="AZ164" t="n" s="10">
         <v>73.9</v>
@@ -57084,7 +57084,7 @@
         <v>76.9</v>
       </c>
       <c r="BE164" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="BF164" t="n" s="10">
         <v>78.6</v>
@@ -57099,7 +57099,7 @@
         <v>81.2</v>
       </c>
       <c r="BJ164" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="BK164" t="n" s="10">
         <v>82.9</v>
@@ -57129,7 +57129,7 @@
         <v>89.8</v>
       </c>
       <c r="BT164" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="BU164" t="n" s="10">
         <v>91.3</v>
@@ -57174,7 +57174,7 @@
         <v>101.4</v>
       </c>
       <c r="CI164" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="CJ164" t="n" s="10">
         <v>102.4</v>
@@ -57189,7 +57189,7 @@
         <v>101.2</v>
       </c>
       <c r="CN164" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="CO164" t="n" s="10">
         <v>98.1</v>
@@ -57237,7 +57237,7 @@
         <v>78.5</v>
       </c>
       <c r="DD164" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="DE164" t="n" s="10">
         <v>81.4</v>
@@ -57252,7 +57252,7 @@
         <v>86.2</v>
       </c>
       <c r="DI164" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DJ164" t="n" s="10">
         <v>89.0</v>
@@ -57384,7 +57384,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:33:09&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:11:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (main groups and aggregates) - 2001.xlsx
@@ -206,7 +206,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:10:56</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:24:16</t>
   </si>
 </sst>
 </file>
@@ -57384,7 +57384,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:11:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:24:24&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>